--- a/problems/tarjan_BCC.xlsx
+++ b/problems/tarjan_BCC.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t xml:space="preserve">割点、割桥、点双联通、边双联通测试</t>
   </si>
@@ -37,6 +37,9 @@
     <t xml:space="preserve">内存</t>
   </si>
   <si>
+    <t xml:space="preserve">备注</t>
+  </si>
+  <si>
     <t xml:space="preserve">LA3523</t>
   </si>
   <si>
@@ -44,6 +47,30 @@
   </si>
   <si>
     <t xml:space="preserve">9ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">玄学建图</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA5135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">206ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POJ1144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1912kb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">割点</t>
   </si>
 </sst>
 </file>
@@ -58,26 +85,28 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="AR PL SungtiL GB"/>
-      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Microsoft YaHei"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -129,12 +158,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -144,6 +173,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -163,10 +196,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G41" activeCellId="0" sqref="G41"/>
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -195,16 +228,56 @@
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>7</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/problems/tarjan_BCC.xlsx
+++ b/problems/tarjan_BCC.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t xml:space="preserve">割点、割桥、点双联通、边双联通测试</t>
   </si>
@@ -37,6 +37,9 @@
     <t xml:space="preserve">内存</t>
   </si>
   <si>
+    <t xml:space="preserve">测试者</t>
+  </si>
+  <si>
     <t xml:space="preserve">备注</t>
   </si>
   <si>
@@ -52,13 +55,19 @@
     <t xml:space="preserve">#</t>
   </si>
   <si>
-    <t xml:space="preserve">玄学建图</t>
+    <t xml:space="preserve">hjj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">玄学建图点双连通</t>
   </si>
   <si>
     <t xml:space="preserve">LA5135</t>
   </si>
   <si>
-    <t xml:space="preserve">206ms</t>
+    <t xml:space="preserve">202ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点双连通</t>
   </si>
   <si>
     <t xml:space="preserve">POJ1144</t>
@@ -71,6 +80,18 @@
   </si>
   <si>
     <t xml:space="preserve">割点</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POJ3177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">692kb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">边双连通</t>
   </si>
 </sst>
 </file>
@@ -80,7 +101,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -114,6 +135,11 @@
       <name val="Microsoft YaHei"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Microsoft YaHei"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -158,7 +184,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -176,6 +202,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -196,10 +226,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -231,53 +261,88 @@
       <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="C4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="E4" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>9</v>
+      <c r="F4" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/problems/tarjan_BCC.xlsx
+++ b/problems/tarjan_BCC.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t xml:space="preserve">割点、割桥、点双联通、边双联通测试</t>
   </si>
@@ -92,6 +92,18 @@
   </si>
   <si>
     <t xml:space="preserve">边双连通</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HDU4738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">124ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5793kb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">桥</t>
   </si>
 </sst>
 </file>
@@ -101,7 +113,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -135,11 +147,6 @@
       <name val="Microsoft YaHei"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Microsoft YaHei"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -184,7 +191,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -202,10 +209,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -226,10 +229,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
+      <selection pane="topLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -301,7 +304,7 @@
       <c r="E4" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -343,6 +346,26 @@
       </c>
       <c r="F6" s="4" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
